--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249D77EC-984E-4EAD-AFCF-15364F07EA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842F336-F797-43D7-9436-23B4FFFAE5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="328">
   <si>
     <t>Category</t>
   </si>
@@ -1007,6 +1007,9 @@
   <si>
     <t xml:space="preserve">Iterate through list and use an empty set initially and for each value not matched in list and set go on adding in set till match found in set and True returned
 </t>
+  </si>
+  <si>
+    <t>use a hashset/dictionary to take the 2 sets of string characters; update their char count/dict values corr to each character key in each iteration;if char count in both dict match it a valid anagram.</t>
   </si>
 </sst>
 </file>
@@ -1454,7 +1457,7 @@
   <dimension ref="A1:AA1007"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1553,7 +1556,9 @@
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>327</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4842F336-F797-43D7-9436-23B4FFFAE5DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4CD1D2-DD3B-4B11-9FDA-7B2CD0E7DE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,10 +61,6 @@
     <t>https://leetcode.com/problems/two-sum/</t>
   </si>
   <si>
-    <t xml:space="preserve">use hash map to instantly check for difference value, map will add index of last occurrence of a num, don’t use same element twice;
-</t>
-  </si>
-  <si>
     <t>Group Anagrams</t>
   </si>
   <si>
@@ -1010,6 +1006,10 @@
   </si>
   <si>
     <t>use a hashset/dictionary to take the 2 sets of string characters; update their char count/dict values corr to each character key in each iteration;if char count in both dict match it a valid anagram.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use hash map-&gt;store  number/difference val. from arr as key and index of array as hm value; if diff found in hm-&gt;return keys of difference and current iteration; if not assign hm value with current index
+</t>
   </si>
 </sst>
 </file>
@@ -1456,8 +1456,8 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1520,7 +1520,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -1557,7 +1557,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -1593,8 +1593,8 @@
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
+      <c r="E4" s="23" t="s">
+        <v>327</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1624,11 +1624,11 @@
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -1659,11 +1659,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -1694,11 +1694,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -1729,11 +1729,11 @@
         <v>5</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1764,11 +1764,11 @@
         <v>5</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1796,14 +1796,14 @@
     </row>
     <row r="10" spans="1:27" ht="15">
       <c r="A10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>24</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -1831,14 +1831,14 @@
     </row>
     <row r="11" spans="1:27" ht="15">
       <c r="A11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>26</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>27</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -1866,14 +1866,14 @@
     </row>
     <row r="12" spans="1:27" ht="15">
       <c r="A12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="7"/>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="4"/>
@@ -1901,14 +1901,14 @@
     </row>
     <row r="13" spans="1:27" ht="15">
       <c r="A13" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C13" s="7"/>
       <c r="D13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="4"/>
@@ -1936,26 +1936,26 @@
     </row>
     <row r="14" spans="1:27" ht="15">
       <c r="A14" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="15">
       <c r="A15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -1983,26 +1983,26 @@
     </row>
     <row r="16" spans="1:27" ht="15">
       <c r="A16" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:27" ht="15">
       <c r="A17" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -2030,14 +2030,14 @@
     </row>
     <row r="18" spans="1:27" ht="15">
       <c r="A18" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -2065,14 +2065,14 @@
     </row>
     <row r="19" spans="1:27" ht="15">
       <c r="A19" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
@@ -2100,14 +2100,14 @@
     </row>
     <row r="20" spans="1:27" ht="15">
       <c r="A20" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
@@ -2135,14 +2135,14 @@
     </row>
     <row r="21" spans="1:27" ht="15">
       <c r="A21" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
@@ -2170,19 +2170,19 @@
     </row>
     <row r="22" spans="1:27" ht="15">
       <c r="A22" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="E22" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>54</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -2209,14 +2209,14 @@
     </row>
     <row r="23" spans="1:27" ht="15">
       <c r="A23" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2244,14 +2244,14 @@
     </row>
     <row r="24" spans="1:27" ht="15">
       <c r="A24" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
@@ -2279,14 +2279,14 @@
     </row>
     <row r="25" spans="1:27" ht="15">
       <c r="A25" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
@@ -2314,14 +2314,14 @@
     </row>
     <row r="26" spans="1:27" ht="15">
       <c r="A26" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
@@ -2349,14 +2349,14 @@
     </row>
     <row r="27" spans="1:27" ht="15">
       <c r="A27" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
@@ -2384,14 +2384,14 @@
     </row>
     <row r="28" spans="1:27" ht="15">
       <c r="A28" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -2419,14 +2419,14 @@
     </row>
     <row r="29" spans="1:27" ht="15">
       <c r="A29" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
@@ -2454,14 +2454,14 @@
     </row>
     <row r="30" spans="1:27" ht="15">
       <c r="A30" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -2489,14 +2489,14 @@
     </row>
     <row r="31" spans="1:27" ht="15">
       <c r="A31" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
@@ -2524,14 +2524,14 @@
     </row>
     <row r="32" spans="1:27" ht="15">
       <c r="A32" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -2559,14 +2559,14 @@
     </row>
     <row r="33" spans="1:27" ht="15">
       <c r="A33" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -2594,14 +2594,14 @@
     </row>
     <row r="34" spans="1:27" ht="15">
       <c r="A34" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
@@ -2629,14 +2629,14 @@
     </row>
     <row r="35" spans="1:27" ht="15">
       <c r="A35" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
@@ -2664,14 +2664,14 @@
     </row>
     <row r="36" spans="1:27" ht="15">
       <c r="A36" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
@@ -2699,14 +2699,14 @@
     </row>
     <row r="37" spans="1:27" ht="15">
       <c r="A37" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
@@ -2734,14 +2734,14 @@
     </row>
     <row r="38" spans="1:27" ht="15">
       <c r="A38" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
@@ -2769,14 +2769,14 @@
     </row>
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -2804,14 +2804,14 @@
     </row>
     <row r="40" spans="1:27" ht="15">
       <c r="A40" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
@@ -2839,14 +2839,14 @@
     </row>
     <row r="41" spans="1:27" ht="15">
       <c r="A41" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -2874,14 +2874,14 @@
     </row>
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2909,14 +2909,14 @@
     </row>
     <row r="43" spans="1:27" ht="15">
       <c r="A43" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -2944,14 +2944,14 @@
     </row>
     <row r="44" spans="1:27" ht="15">
       <c r="A44" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -2979,14 +2979,14 @@
     </row>
     <row r="45" spans="1:27" ht="15">
       <c r="A45" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -3014,14 +3014,14 @@
     </row>
     <row r="46" spans="1:27" ht="15">
       <c r="A46" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -3049,14 +3049,14 @@
     </row>
     <row r="47" spans="1:27" ht="15">
       <c r="A47" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B47" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>105</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
@@ -3084,14 +3084,14 @@
     </row>
     <row r="48" spans="1:27" ht="15">
       <c r="A48" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -3119,14 +3119,14 @@
     </row>
     <row r="49" spans="1:27" ht="15">
       <c r="A49" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
@@ -3154,14 +3154,14 @@
     </row>
     <row r="50" spans="1:27" ht="15">
       <c r="A50" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
@@ -3189,14 +3189,14 @@
     </row>
     <row r="51" spans="1:27" ht="15">
       <c r="A51" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
@@ -3224,14 +3224,14 @@
     </row>
     <row r="52" spans="1:27" ht="15">
       <c r="A52" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
@@ -3259,14 +3259,14 @@
     </row>
     <row r="53" spans="1:27" ht="15">
       <c r="A53" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
@@ -3294,14 +3294,14 @@
     </row>
     <row r="54" spans="1:27" ht="15">
       <c r="A54" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
@@ -3329,14 +3329,14 @@
     </row>
     <row r="55" spans="1:27" ht="15">
       <c r="A55" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
@@ -3364,14 +3364,14 @@
     </row>
     <row r="56" spans="1:27" ht="15">
       <c r="A56" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -3399,14 +3399,14 @@
     </row>
     <row r="57" spans="1:27" ht="15">
       <c r="A57" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C57" s="13"/>
       <c r="D57" s="14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
@@ -3434,14 +3434,14 @@
     </row>
     <row r="58" spans="1:27" ht="15">
       <c r="A58" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B58" s="19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
@@ -3469,14 +3469,14 @@
     </row>
     <row r="59" spans="1:27" ht="15">
       <c r="A59" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
@@ -3504,14 +3504,14 @@
     </row>
     <row r="60" spans="1:27" ht="15">
       <c r="A60" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
@@ -3539,14 +3539,14 @@
     </row>
     <row r="61" spans="1:27" ht="15">
       <c r="A61" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B61" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
@@ -3574,14 +3574,14 @@
     </row>
     <row r="62" spans="1:27" ht="15">
       <c r="A62" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" s="19" t="s">
         <v>135</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
@@ -3609,14 +3609,14 @@
     </row>
     <row r="63" spans="1:27" ht="15">
       <c r="A63" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
@@ -3644,14 +3644,14 @@
     </row>
     <row r="64" spans="1:27" ht="15">
       <c r="A64" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B64" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
@@ -3679,14 +3679,14 @@
     </row>
     <row r="65" spans="1:27" ht="15">
       <c r="A65" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" s="6" t="s">
         <v>142</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>143</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
@@ -3714,14 +3714,14 @@
     </row>
     <row r="66" spans="1:27" ht="15">
       <c r="A66" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
@@ -3749,14 +3749,14 @@
     </row>
     <row r="67" spans="1:27" ht="15">
       <c r="A67" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B67" s="19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
@@ -3784,14 +3784,14 @@
     </row>
     <row r="68" spans="1:27" ht="15">
       <c r="A68" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B68" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
@@ -3819,14 +3819,14 @@
     </row>
     <row r="69" spans="1:27" ht="15">
       <c r="A69" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B69" s="19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="14" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -3854,14 +3854,14 @@
     </row>
     <row r="70" spans="1:27" ht="15">
       <c r="A70" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B70" s="19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
@@ -3889,14 +3889,14 @@
     </row>
     <row r="71" spans="1:27" ht="15">
       <c r="A71" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B71" s="17" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
@@ -3924,14 +3924,14 @@
     </row>
     <row r="72" spans="1:27" ht="15">
       <c r="A72" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B72" s="19" t="s">
         <v>157</v>
-      </c>
-      <c r="B72" s="19" t="s">
-        <v>158</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="14" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -3959,14 +3959,14 @@
     </row>
     <row r="73" spans="1:27" ht="15">
       <c r="A73" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B73" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -3994,14 +3994,14 @@
     </row>
     <row r="74" spans="1:27" ht="15">
       <c r="A74" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B74" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
@@ -4029,14 +4029,14 @@
     </row>
     <row r="75" spans="1:27" ht="15">
       <c r="A75" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B75" s="19" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="14" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
@@ -4064,14 +4064,14 @@
     </row>
     <row r="76" spans="1:27" ht="15">
       <c r="A76" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B76" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
@@ -4099,14 +4099,14 @@
     </row>
     <row r="77" spans="1:27" ht="15">
       <c r="A77" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B77" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
@@ -4134,14 +4134,14 @@
     </row>
     <row r="78" spans="1:27" ht="15">
       <c r="A78" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B78" s="19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
@@ -4169,14 +4169,14 @@
     </row>
     <row r="79" spans="1:27" ht="15">
       <c r="A79" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B79" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
@@ -4204,14 +4204,14 @@
     </row>
     <row r="80" spans="1:27" ht="15">
       <c r="A80" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B80" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
@@ -4239,14 +4239,14 @@
     </row>
     <row r="81" spans="1:27" ht="15">
       <c r="A81" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B81" s="19" t="s">
         <v>176</v>
-      </c>
-      <c r="B81" s="19" t="s">
-        <v>177</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
@@ -4274,14 +4274,14 @@
     </row>
     <row r="82" spans="1:27" ht="15">
       <c r="A82" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B82" s="19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="14" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
@@ -4309,14 +4309,14 @@
     </row>
     <row r="83" spans="1:27" ht="15">
       <c r="A83" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B83" s="19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
@@ -4344,14 +4344,14 @@
     </row>
     <row r="84" spans="1:27" ht="15">
       <c r="A84" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B84" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -4379,14 +4379,14 @@
     </row>
     <row r="85" spans="1:27" ht="15">
       <c r="A85" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B85" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
@@ -4414,14 +4414,14 @@
     </row>
     <row r="86" spans="1:27" ht="15">
       <c r="A86" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B86" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
@@ -4449,14 +4449,14 @@
     </row>
     <row r="87" spans="1:27" ht="15">
       <c r="A87" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B87" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
@@ -4484,14 +4484,14 @@
     </row>
     <row r="88" spans="1:27" ht="15">
       <c r="A88" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B88" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="14" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
@@ -4519,14 +4519,14 @@
     </row>
     <row r="89" spans="1:27" ht="15">
       <c r="A89" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B89" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="14" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
@@ -4554,14 +4554,14 @@
     </row>
     <row r="90" spans="1:27" ht="15">
       <c r="A90" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B90" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="14" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
@@ -4589,14 +4589,14 @@
     </row>
     <row r="91" spans="1:27" ht="15">
       <c r="A91" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B91" s="19" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="14" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
@@ -4624,14 +4624,14 @@
     </row>
     <row r="92" spans="1:27" ht="15">
       <c r="A92" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B92" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="14" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
@@ -4659,14 +4659,14 @@
     </row>
     <row r="93" spans="1:27" ht="15">
       <c r="A93" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B93" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="14" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
@@ -4694,14 +4694,14 @@
     </row>
     <row r="94" spans="1:27" ht="15">
       <c r="A94" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B94" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="B94" s="17" t="s">
-        <v>204</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
@@ -4729,14 +4729,14 @@
     </row>
     <row r="95" spans="1:27" ht="15">
       <c r="A95" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B95" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
@@ -4764,14 +4764,14 @@
     </row>
     <row r="96" spans="1:27" ht="15">
       <c r="A96" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B96" s="19" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -4799,14 +4799,14 @@
     </row>
     <row r="97" spans="1:27" ht="15">
       <c r="A97" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B97" s="17" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
@@ -4834,14 +4834,14 @@
     </row>
     <row r="98" spans="1:27" ht="15">
       <c r="A98" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B98" s="17" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
@@ -4869,14 +4869,14 @@
     </row>
     <row r="99" spans="1:27" ht="15">
       <c r="A99" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
@@ -4904,14 +4904,14 @@
     </row>
     <row r="100" spans="1:27" ht="15">
       <c r="A100" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B100" s="6" t="s">
         <v>216</v>
-      </c>
-      <c r="B100" s="6" t="s">
-        <v>217</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
@@ -4939,14 +4939,14 @@
     </row>
     <row r="101" spans="1:27" ht="15">
       <c r="A101" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
@@ -4974,14 +4974,14 @@
     </row>
     <row r="102" spans="1:27" ht="15">
       <c r="A102" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B102" s="19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
@@ -5009,14 +5009,14 @@
     </row>
     <row r="103" spans="1:27" ht="15">
       <c r="A103" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B103" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
@@ -5044,14 +5044,14 @@
     </row>
     <row r="104" spans="1:27" ht="15">
       <c r="A104" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B104" s="19" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
@@ -5079,14 +5079,14 @@
     </row>
     <row r="105" spans="1:27" ht="15">
       <c r="A105" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B105" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
@@ -5114,14 +5114,14 @@
     </row>
     <row r="106" spans="1:27" ht="15">
       <c r="A106" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B106" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
@@ -5149,14 +5149,14 @@
     </row>
     <row r="107" spans="1:27" ht="15">
       <c r="A107" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B107" s="19" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
@@ -5184,14 +5184,14 @@
     </row>
     <row r="108" spans="1:27" ht="15">
       <c r="A108" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B108" s="19" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
@@ -5219,14 +5219,14 @@
     </row>
     <row r="109" spans="1:27" ht="15">
       <c r="A109" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B109" s="19" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="14" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
@@ -5254,14 +5254,14 @@
     </row>
     <row r="110" spans="1:27" ht="15">
       <c r="A110" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B110" s="19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C110" s="13"/>
       <c r="D110" s="14" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
@@ -5289,14 +5289,14 @@
     </row>
     <row r="111" spans="1:27" ht="15">
       <c r="A111" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B111" s="19" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C111" s="13"/>
       <c r="D111" s="14" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -5324,14 +5324,14 @@
     </row>
     <row r="112" spans="1:27" ht="15">
       <c r="A112" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B112" s="19" t="s">
         <v>241</v>
-      </c>
-      <c r="B112" s="19" t="s">
-        <v>242</v>
       </c>
       <c r="C112" s="13"/>
       <c r="D112" s="14" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
@@ -5359,14 +5359,14 @@
     </row>
     <row r="113" spans="1:27" ht="15">
       <c r="A113" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B113" s="19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C113" s="13"/>
       <c r="D113" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
@@ -5394,14 +5394,14 @@
     </row>
     <row r="114" spans="1:27" ht="15">
       <c r="A114" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B114" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C114" s="13"/>
       <c r="D114" s="14" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
@@ -5429,14 +5429,14 @@
     </row>
     <row r="115" spans="1:27" ht="15">
       <c r="A115" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B115" s="19" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C115" s="13"/>
       <c r="D115" s="14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
@@ -5464,14 +5464,14 @@
     </row>
     <row r="116" spans="1:27" ht="15">
       <c r="A116" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B116" s="19" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C116" s="13"/>
       <c r="D116" s="14" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
@@ -5499,14 +5499,14 @@
     </row>
     <row r="117" spans="1:27" ht="15">
       <c r="A117" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B117" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C117" s="13"/>
       <c r="D117" s="14" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
@@ -5534,14 +5534,14 @@
     </row>
     <row r="118" spans="1:27" ht="15">
       <c r="A118" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B118" s="17" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C118" s="13"/>
       <c r="D118" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
@@ -5569,14 +5569,14 @@
     </row>
     <row r="119" spans="1:27" ht="15">
       <c r="A119" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B119" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C119" s="13"/>
       <c r="D119" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
@@ -5604,14 +5604,14 @@
     </row>
     <row r="120" spans="1:27" ht="15">
       <c r="A120" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C120" s="13"/>
       <c r="D120" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
@@ -5639,14 +5639,14 @@
     </row>
     <row r="121" spans="1:27" ht="15">
       <c r="A121" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C121" s="13"/>
       <c r="D121" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
@@ -5674,14 +5674,14 @@
     </row>
     <row r="122" spans="1:27" ht="15">
       <c r="A122" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="14" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
@@ -5709,14 +5709,14 @@
     </row>
     <row r="123" spans="1:27" ht="15">
       <c r="A123" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="B123" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="B123" s="19" t="s">
-        <v>265</v>
       </c>
       <c r="C123" s="13"/>
       <c r="D123" s="14" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
@@ -5744,14 +5744,14 @@
     </row>
     <row r="124" spans="1:27" ht="15">
       <c r="A124" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B124" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C124" s="13"/>
       <c r="D124" s="14" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
@@ -5779,14 +5779,14 @@
     </row>
     <row r="125" spans="1:27" ht="15">
       <c r="A125" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B125" s="19" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C125" s="13"/>
       <c r="D125" s="14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
@@ -5814,14 +5814,14 @@
     </row>
     <row r="126" spans="1:27" ht="15">
       <c r="A126" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B126" s="19" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C126" s="13"/>
       <c r="D126" s="14" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
@@ -5849,14 +5849,14 @@
     </row>
     <row r="127" spans="1:27" ht="15">
       <c r="A127" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B127" s="19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C127" s="13"/>
       <c r="D127" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
@@ -5884,14 +5884,14 @@
     </row>
     <row r="128" spans="1:27" ht="15">
       <c r="A128" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B128" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C128" s="13"/>
       <c r="D128" s="14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
@@ -5919,14 +5919,14 @@
     </row>
     <row r="129" spans="1:27" ht="15">
       <c r="A129" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B129" s="19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C129" s="13"/>
       <c r="D129" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
@@ -5954,14 +5954,14 @@
     </row>
     <row r="130" spans="1:27" ht="15">
       <c r="A130" s="11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B130" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C130" s="13"/>
       <c r="D130" s="14" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
@@ -5989,14 +5989,14 @@
     </row>
     <row r="131" spans="1:27" ht="15">
       <c r="A131" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="B131" s="19" t="s">
         <v>281</v>
-      </c>
-      <c r="B131" s="19" t="s">
-        <v>282</v>
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="14" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
@@ -6024,14 +6024,14 @@
     </row>
     <row r="132" spans="1:27" ht="15">
       <c r="A132" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B132" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
@@ -6059,14 +6059,14 @@
     </row>
     <row r="133" spans="1:27" ht="15">
       <c r="A133" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B133" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C133" s="13"/>
       <c r="D133" s="14" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
@@ -6094,14 +6094,14 @@
     </row>
     <row r="134" spans="1:27" ht="15">
       <c r="A134" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C134" s="13"/>
       <c r="D134" s="14" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
@@ -6129,14 +6129,14 @@
     </row>
     <row r="135" spans="1:27" ht="15">
       <c r="A135" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B135" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C135" s="13"/>
       <c r="D135" s="14" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
@@ -6164,14 +6164,14 @@
     </row>
     <row r="136" spans="1:27" ht="15">
       <c r="A136" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C136" s="13"/>
       <c r="D136" s="14" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
@@ -6199,14 +6199,14 @@
     </row>
     <row r="137" spans="1:27" ht="15">
       <c r="A137" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="B137" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="B137" s="19" t="s">
-        <v>295</v>
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="14" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
@@ -6234,14 +6234,14 @@
     </row>
     <row r="138" spans="1:27" ht="15">
       <c r="A138" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B138" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C138" s="13"/>
       <c r="D138" s="14" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
@@ -6269,14 +6269,14 @@
     </row>
     <row r="139" spans="1:27" ht="15">
       <c r="A139" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B139" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C139" s="13"/>
       <c r="D139" s="14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
@@ -6304,14 +6304,14 @@
     </row>
     <row r="140" spans="1:27" ht="15">
       <c r="A140" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="14" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
@@ -6339,14 +6339,14 @@
     </row>
     <row r="141" spans="1:27" ht="15">
       <c r="A141" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C141" s="13"/>
       <c r="D141" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
@@ -6374,14 +6374,14 @@
     </row>
     <row r="142" spans="1:27" ht="15">
       <c r="A142" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B142" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C142" s="13"/>
       <c r="D142" s="14" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
@@ -6409,14 +6409,14 @@
     </row>
     <row r="143" spans="1:27" ht="15">
       <c r="A143" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B143" s="19" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C143" s="13"/>
       <c r="D143" s="14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
@@ -6444,14 +6444,14 @@
     </row>
     <row r="144" spans="1:27" ht="15">
       <c r="A144" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B144" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C144" s="13"/>
       <c r="D144" s="14" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
@@ -6479,14 +6479,14 @@
     </row>
     <row r="145" spans="1:27" ht="15">
       <c r="A145" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B145" s="6" t="s">
         <v>311</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="C145" s="13"/>
       <c r="D145" s="14" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
@@ -6514,14 +6514,14 @@
     </row>
     <row r="146" spans="1:27" ht="15">
       <c r="A146" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C146" s="13"/>
       <c r="D146" s="14" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
@@ -6549,14 +6549,14 @@
     </row>
     <row r="147" spans="1:27" ht="15">
       <c r="A147" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C147" s="13"/>
       <c r="D147" s="14" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
@@ -6584,14 +6584,14 @@
     </row>
     <row r="148" spans="1:27" ht="15">
       <c r="A148" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C148" s="13"/>
       <c r="D148" s="14" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
@@ -6619,14 +6619,14 @@
     </row>
     <row r="149" spans="1:27" ht="15">
       <c r="A149" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C149" s="13"/>
       <c r="D149" s="14" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
@@ -6654,14 +6654,14 @@
     </row>
     <row r="150" spans="1:27" ht="15">
       <c r="A150" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B150" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="14" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
@@ -6689,14 +6689,14 @@
     </row>
     <row r="151" spans="1:27" ht="15">
       <c r="A151" s="11" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B151" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C151" s="13"/>
       <c r="D151" s="14" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4CD1D2-DD3B-4B11-9FDA-7B2CD0E7DE20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BA08A5-BEC8-4D51-AA49-68876817A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="335">
   <si>
     <t>Category</t>
   </si>
@@ -1010,6 +1010,28 @@
   <si>
     <t xml:space="preserve">use hash map-&gt;store  number/difference val. from arr as key and index of array as hm value; if diff found in hm-&gt;return keys of difference and current iteration; if not assign hm value with current index
 </t>
+  </si>
+  <si>
+    <t>Rev</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Time Complexity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Hm(defaultdict so that empty list is return if key not present)-&gt;keys: counter(list) from a to z in numbers and values: input strings ; for same key(list containing atoz num-&gt;multiple vals like eat/tea appended) 
+</t>
+  </si>
+  <si>
+    <t>use 1 dict for nos;key:ip number and vals:freq count-&gt;use a list to group same freq nos together;take res[] to store top k similar freq nos;iterate negatively from highest freq to lowest till res[] len == k</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M*N</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1223,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1234,6 +1256,13 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1456,7 +1485,7 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1467,6 +1496,7 @@
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="64.42578125" customWidth="1"/>
     <col min="5" max="5" width="208.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
@@ -1485,7 +1515,9 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="24" t="s">
+        <v>330</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -1515,7 +1547,9 @@
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="7"/>
+      <c r="C2" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1552,7 +1586,9 @@
       <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
@@ -1589,7 +1625,9 @@
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>329</v>
+      </c>
       <c r="D4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1619,19 +1657,25 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" ht="15">
+    <row r="5" spans="1:27" ht="30">
       <c r="A5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>328</v>
+      </c>
       <c r="D5" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>334</v>
+      </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
@@ -1665,8 +1709,12 @@
       <c r="D6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>333</v>
+      </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -1700,7 +1748,6 @@
       <c r="D7" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
@@ -1736,7 +1783,6 @@
         <v>19</v>
       </c>
       <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46BA08A5-BEC8-4D51-AA49-68876817A4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888653C-540F-45F6-AEE5-0EF5047B8FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="336">
   <si>
     <t>Category</t>
   </si>
@@ -1032,6 +1032,9 @@
   </si>
   <si>
     <t>M*N</t>
+  </si>
+  <si>
+    <t xml:space="preserve">take 2 lists= left[] and right[] and take their individual products then mult. Link: https://www.youtube.com/watch?v=G9zKmhybKBM&amp;t=720s </t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1260,9 +1263,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1485,7 +1485,7 @@
   </sheetPr>
   <dimension ref="A1:AA1007"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -1709,7 +1709,7 @@
       <c r="D6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="25" t="s">
         <v>332</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -1747,6 +1747,9 @@
       <c r="C7" s="16"/>
       <c r="D7" s="14" t="s">
         <v>17</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>335</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>

--- a/NeetCode 150.xlsx
+++ b/NeetCode 150.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GD\Desktop\LeetCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4888653C-540F-45F6-AEE5-0EF5047B8FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBA244CD-7317-443A-9528-E39DC3D52A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="337">
   <si>
     <t>Category</t>
   </si>
@@ -1035,6 +1035,9 @@
   </si>
   <si>
     <t xml:space="preserve">take 2 lists= left[] and right[] and take their individual products then mult. Link: https://www.youtube.com/watch?v=G9zKmhybKBM&amp;t=720s </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HyiAKwasi3M</t>
   </si>
 </sst>
 </file>
@@ -1486,7 +1489,7 @@
   <dimension ref="A1:AA1007"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1785,7 +1788,9 @@
       <c r="D8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>336</v>
+      </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
